--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value216.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value216.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.153341116133904</v>
+        <v>1.488079071044922</v>
       </c>
       <c r="B1">
-        <v>1.522117298169805</v>
+        <v>3.173280954360962</v>
       </c>
       <c r="C1">
-        <v>1.585655890614846</v>
+        <v>5.258664131164551</v>
       </c>
       <c r="D1">
-        <v>1.696546808087855</v>
+        <v>1.550381898880005</v>
       </c>
       <c r="E1">
-        <v>2.023383413130358</v>
+        <v>0.8201225399971008</v>
       </c>
     </row>
   </sheetData>
